--- a/data/trans_bre/P16A11-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Clase-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A11-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Clase-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>-0.2410489363845496</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.3918984327060781</v>
+        <v>-0.3918984327060782</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.297272613448072</v>
+        <v>-5.218739426383631</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.57831004547194</v>
+        <v>-12.41308547683063</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.069710625636981</v>
+        <v>-7.696823567787472</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-12.25241349901264</v>
+        <v>-11.84599274000768</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4102886899964284</v>
+        <v>-0.4281246873783049</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6594251372317742</v>
+        <v>-0.654376430120113</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5514310586459583</v>
+        <v>-0.5213582969122058</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5376881307217332</v>
+        <v>-0.5288313312608478</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.854139534087083</v>
+        <v>3.57242204801851</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.655661750519978</v>
+        <v>-1.55635973086535</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.963219497894327</v>
+        <v>1.939228775978152</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-4.147680046829743</v>
+        <v>-3.620111668868645</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.448238555837655</v>
+        <v>0.4289039164555842</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1017444355696344</v>
+        <v>-0.1050015292468287</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2107476202859059</v>
+        <v>0.2073975148451189</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.2282488208368303</v>
+        <v>-0.2099973046214053</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-6.715350380418998</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-7.608069879547072</v>
+        <v>-7.608069879547067</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.5584073938390055</v>
@@ -749,7 +749,7 @@
         <v>-0.4734250808804448</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.3659879431630041</v>
+        <v>-0.3659879431630039</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-11.75006430470341</v>
+        <v>-11.31145322624694</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-8.689542962564826</v>
+        <v>-8.442849048659792</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-11.07859290611129</v>
+        <v>-11.37204268562613</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-12.04406933392354</v>
+        <v>-11.68061157502907</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7505686443884558</v>
+        <v>-0.7394231325488021</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5604474768982404</v>
+        <v>-0.54611928702351</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6690158236297716</v>
+        <v>-0.6815289861470822</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5155044193741193</v>
+        <v>-0.5034132748294298</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-2.98639876263617</v>
+        <v>-2.734697465922323</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.234688349685919</v>
+        <v>1.147874972541467</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-1.992418038443015</v>
+        <v>-2.039804476710357</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-3.19553627019712</v>
+        <v>-2.963763868243916</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.259408334353553</v>
+        <v>-0.2608462801208632</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1081395363551385</v>
+        <v>0.116390908998031</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1603664050348608</v>
+        <v>-0.1751951347537493</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1714401526752274</v>
+        <v>-0.1600151624463262</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.252738185688205</v>
+        <v>-3.440219910670898</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.201783663988399</v>
+        <v>-5.305809623439558</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.5916520596427</v>
+        <v>-2.613107500506864</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.185788172332291</v>
+        <v>-3.001163739682294</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2581417917038522</v>
+        <v>-0.2602576558208733</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2228272431728261</v>
+        <v>-0.2248582949483788</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1351811337189328</v>
+        <v>-0.1676997416134614</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1431521371485863</v>
+        <v>-0.1378364765188352</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.918705052888976</v>
+        <v>8.727697697550319</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.589351075101842</v>
+        <v>7.519267784333347</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.72373343276655</v>
+        <v>13.07623918663825</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.456519647016179</v>
+        <v>8.769546237048733</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8165762040708421</v>
+        <v>0.8337853423735647</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4433557659337041</v>
+        <v>0.3911133425602347</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9265310964376861</v>
+        <v>0.9151965499771519</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.440052966134407</v>
+        <v>0.4659455786233916</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-7.151388089932905</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-5.603689410342821</v>
+        <v>-5.603689410342819</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1546202930713546</v>
@@ -949,7 +949,7 @@
         <v>-0.3997494104021305</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.266011773912111</v>
+        <v>-0.2660117739121109</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.656213431296647</v>
+        <v>-5.864021747725713</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-10.77807436303679</v>
+        <v>-10.89986328426243</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-10.13951010386016</v>
+        <v>-10.24311069436373</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-8.708569852754609</v>
+        <v>-8.823278429076817</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3217452180312828</v>
+        <v>-0.3299560678203744</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5423288814409435</v>
+        <v>-0.5488662977074958</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5290127054032078</v>
+        <v>-0.533977041911651</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3786787880569037</v>
+        <v>-0.3785266684288665</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5623196805017698</v>
+        <v>0.8943551384675785</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-4.106121896357985</v>
+        <v>-4.48131657457621</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-4.141064110208749</v>
+        <v>-4.101751405524197</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-2.827544654458836</v>
+        <v>-2.814109314383417</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03469112148430138</v>
+        <v>0.06007635266694919</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.23690222147181</v>
+        <v>-0.2527470405962194</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2492455773417803</v>
+        <v>-0.2483930153486993</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1458256983133508</v>
+        <v>-0.1442398123599884</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.56062121517214</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.457738830014289</v>
+        <v>8.457738830014286</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2022123356270407</v>
@@ -1049,7 +1049,7 @@
         <v>0.1503254171372474</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4627281952909048</v>
+        <v>0.4627281952909046</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.033981827283299</v>
+        <v>-1.970419691738543</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.490006689459892</v>
+        <v>2.387080362385908</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.828844679501397</v>
+        <v>-1.541428057619622</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.295154512951281</v>
+        <v>4.710929910833206</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1522417102994081</v>
+        <v>-0.1346652800117476</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1148643713067174</v>
+        <v>0.1090570767516969</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.09337159293386681</v>
+        <v>-0.08578446872246068</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2027998753091194</v>
+        <v>0.2186692987261986</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.033829604999855</v>
+        <v>6.965316900360687</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.01307922118021</v>
+        <v>11.61545042143417</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.905200994627745</v>
+        <v>6.525065685406253</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.23314100494033</v>
+        <v>12.03634094905835</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7416266598579021</v>
+        <v>0.7783213544575918</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7639748043621895</v>
+        <v>0.7537027478837108</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4698532440288766</v>
+        <v>0.4361041097193905</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7587637412717576</v>
+        <v>0.7659796384284092</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>27.17350195125621</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27.45435665825867</v>
+        <v>27.45435665825866</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>14.49418416594517</v>
@@ -1149,7 +1149,7 @@
         <v>78.56517302351729</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>23.04703809389279</v>
+        <v>23.04703809389278</v>
       </c>
     </row>
     <row r="20">
@@ -1160,26 +1160,26 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>20.32853626990453</v>
+        <v>20.25632288317106</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>26.99047660681307</v>
+        <v>26.72546551220666</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>24.252945136957</v>
+        <v>24.28687871670776</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>24.06807594530219</v>
+        <v>24.24515157131856</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>5.762241270109401</v>
+        <v>5.789834010262159</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>7.911350519302959</v>
+        <v>7.635655583522298</v>
       </c>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>7.49993090423277</v>
+        <v>8.082661109269932</v>
       </c>
     </row>
     <row r="21">
@@ -1190,26 +1190,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>25.75147897458804</v>
+        <v>25.65206023312207</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>33.27989268506752</v>
+        <v>33.00073076105038</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>30.04851430910779</v>
+        <v>30.15833297279861</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30.18776386501962</v>
+        <v>30.1169932014036</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>41.15642434364627</v>
+        <v>40.9261897248956</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>82.15852318288168</v>
+        <v>80.68751175000058</v>
       </c>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>76.22582438795621</v>
+        <v>72.54551375384344</v>
       </c>
     </row>
     <row r="22">
@@ -1233,7 +1233,7 @@
         <v>2.857113049148246</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.831812843053221</v>
+        <v>1.831812843053218</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3212585570323545</v>
@@ -1245,7 +1245,7 @@
         <v>0.1920894001565145</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.09666984855504912</v>
+        <v>0.09666984855504897</v>
       </c>
     </row>
     <row r="23">
@@ -1256,28 +1256,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.323448643593633</v>
+        <v>2.29942703489897</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.243390116858619</v>
+        <v>2.389855292356212</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8122465497642334</v>
+        <v>1.107218709943273</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1809354974449458</v>
+        <v>0.1159917039449489</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1686162895034098</v>
+        <v>0.1733546348366182</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1263249009510218</v>
+        <v>0.1335655748130563</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05279250751031742</v>
+        <v>0.06855482904234707</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.007670769561146226</v>
+        <v>0.002457384775223188</v>
       </c>
     </row>
     <row r="24">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.857852396377349</v>
+        <v>5.681589555326978</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.953768630685729</v>
+        <v>6.175239230525144</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.485775334977637</v>
+        <v>4.736202549785844</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.410433034565738</v>
+        <v>3.458739148179016</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4853815722720382</v>
+        <v>0.4798955114394916</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3770645724318556</v>
+        <v>0.3884399374135167</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3173898310559647</v>
+        <v>0.3325433463270558</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1882574919330916</v>
+        <v>0.1882030379966423</v>
       </c>
     </row>
     <row r="25">
